--- a/data/distri_gaussian.xlsx
+++ b/data/distri_gaussian.xlsx
@@ -709,244 +709,244 @@
     <t>(4.576466991173769e-05, -21.53305221947945, 0.9718482699004487)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54469b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54847f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5402200&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54451e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f548e6b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5400a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5401840&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c0e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5403910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5401ed0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5485270&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5444610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f4a83310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5445570&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f547fbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5486980&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5445480&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54be830&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5400070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5400f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5402c50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54bfe80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54473a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54030d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5444160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f547f490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5447f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5401900&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c31f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5446b60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f547ffa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f4a81780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5445f30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f4a82440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f547ec50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5402410&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c2200&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5487be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5402d40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54039d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c2a40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c22c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f547f8b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5402770&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5446350&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54026e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5fc3561d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5401b10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5447190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5485390&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c2c80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5446530&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5445c30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5402650&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5487fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5486c80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5446620&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c1d80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f4a80e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5403c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5401120&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5446830&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5486530&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5403970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54012d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5401de0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c21a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c3310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5487310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5447c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5446d40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5fc26d9c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c0f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f547fac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54032e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c0460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54445b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54845e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55c2860&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54008e0&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04513580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044a0bb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04528730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04513af0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f060bed10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04516f20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452a3e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453d2a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452ab60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452b7f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044fded0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04513a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044fee60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04514f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0450bca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044a2290&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04514130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044ffc40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04517c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f045145b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f045291b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044ff7f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04516260&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04528280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04513d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0450b430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04514ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04514310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452a530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04517850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0450bdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044ff340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04513e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044ff160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0450b370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04529360&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453cd60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044fc6a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452a590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452a8f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453d060&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452a740&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0450b6d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f045288e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04517670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04528100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044fee00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04529270&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f045149a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044fc2b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453e170&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04514730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f045176d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04516b00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0609baf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0609bbb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04514a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04529690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044ff7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04529600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f045294b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04513640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044e5030&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452a440&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04529ae0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04517160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453d0f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453ea40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044a1660&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04515f00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04513a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044ff9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04529ba0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0450b9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04529330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453c3d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04512da0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044a2c20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453d840&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f045298a0&gt;</t>
   </si>
   <si>
     <t>#e41a1c</t>
@@ -1393,244 +1393,244 @@
     <t>(1.9073694713762915e-05, -29.168489053139893, 0.414971846252818)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5502ce0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557efe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55025c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe44190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f54028f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55bb580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5587130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557eb60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9090&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557f670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe44820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5500850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55036a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5501540&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5402500&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9480&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55780d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5500f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9ae0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5503130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55870d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b8df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9750&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5501c90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55ba110&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557f070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55bbb80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5500700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557fd00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe47220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55037f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55000d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55018d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5502cb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55871c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55bb910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55bb850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557fc10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557ef20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b8af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe46740&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5500d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55bab00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5500760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557f9a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f550ff70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55badd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe458a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe44f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9f60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55baef0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55039d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55ba560&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe46e00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe446a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5501690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55ba6e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe46410&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5503d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9600&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5585a80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5500940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe44c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe45b10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5500b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5585180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe47d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f550c5e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557f400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55ba380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe46cb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5579b40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f5501060&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55bb370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557fa00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f557f250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe456f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe463b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55b9d50&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443e410&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04551210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443edd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0445a3b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0452b520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04449540&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043be2c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bd600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444a3e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bd780&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04458e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453f820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453f7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443e8f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04528340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443f5e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0458a590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bd540&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04449150&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453df60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bfdc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04448670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443f490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453e770&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443eb60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bc580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044484f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453c640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bf7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0445ace0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443e500&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453c9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453df90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453f850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bd0c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444ac20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04449d20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444a8f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bdc30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bc670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443dc90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444a440&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443df00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444be80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453c910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043befe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453c970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04449e70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0445a7a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444b8e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444b1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04449f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443e980&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04449a20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04459480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04448370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443f400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444ad40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04459ed0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0443dd20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04448730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bfb80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bc2b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444a4a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04448760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453ff40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bfa00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0445a920&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bdf90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bd690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04448850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04458ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043fe980&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0453ff10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444a410&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bc850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043bf4c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0445bd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04459600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044481f0&gt;</t>
   </si>
   <si>
     <t>(0.9522260492179202, 7.772915713217948)</t>
@@ -2050,244 +2050,244 @@
     <t>(2.022563876625364e-05, -287.70990511021273, 3.336645358395775)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62316c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe1b2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe185b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62334f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe19f90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe1b6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bffa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe18310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6281ff0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55bbaf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe855d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe19360&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6231420&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe18c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6233730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bfcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6233550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bdc60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bf520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efefca00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bc610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bc7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe196f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe1b9a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a2290&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bcf40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bcca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a1d80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe1a440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bdf30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62309a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bd330&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe1a0b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe18670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe1a710&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe187c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bf3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a19f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a2620&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe189a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bfc10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe19390&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bc0a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6233190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe18cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bf700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a35b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe19b70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bf0a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a36d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a02e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bf9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bcee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a29e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a1030&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6233c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6233040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bef50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bdcc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe19c00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a1f60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6281d80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a0340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe191e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6233cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a0190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6233b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5f55baf80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bdb70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efefcc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62332e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efe19810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bead0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a3d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a3340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bfe50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6282350&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a0220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bfdc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a1900&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f849a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc7e50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc4670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f37c10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f60ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc5b70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff4460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f87640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041aa1a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04449e10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f043fcfa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc5030&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f87c10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc75b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f87400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff59f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f86590&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc5990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04448880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04459d20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc5f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc6f20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f87e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc4190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff48e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc4d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc7c10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041a8340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f86560&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc4460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f85ff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc59f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc5480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f868f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f87dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc7eb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff4a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041a93c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041aa140&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f85630&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff6140&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f044586d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc6fe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f879a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc54e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff5cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff5de0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc7d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff6b30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041aa050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff71f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff5bd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff5b10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff6710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff6350&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f87040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f86ce0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc4ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05fc7010&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f85990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041aab90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041a9030&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff4e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f37850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f867d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041a8fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f37f70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0444bdc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff4d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f874c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f85c90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05f85930&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff5900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041ab310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041aa950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff5f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041a8dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041a83a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff40a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff4b50&gt;</t>
   </si>
   <si>
     <t>(2.083788884653142,)</t>
@@ -2707,244 +2707,244 @@
     <t>(1.8202821410986917e-05, -291.55896429907193, 3.0215007407825194)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62bddb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd93c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6363cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd93a90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efdf76d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd93700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd904c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd91b10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a1b40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632ed40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd93880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632e380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632f610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6361690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd90b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6362920&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e63601f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e62a0f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd91fc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e63611e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e63616c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6361780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632f0a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632ec50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6360fa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632e9b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd91cc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6361150&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6360340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd91810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd76710&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd92050&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6361cc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6362fb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efdc1fc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd93850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd92320&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd91a80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632f520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd76dd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e637e7a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e637f1c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6360040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632e770&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e637d720&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6361a80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6363af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd90e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd903d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e63635e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6363820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd91300&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd29e10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6361510&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e637d750&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6363970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632c850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e637e5f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd2a740&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6362b60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632f6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632de70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efdc34f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e637cca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6361390&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd77f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e6360100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd90310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632f910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd90610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632e8f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e632e830&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd2bf70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd75bd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd90a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e630bc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e63618d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd776d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5efd76bc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5e637c430&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05ff60b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28372e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284d390&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2837400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041b4f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2835720&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428f670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428e980&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28685b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428ce50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28345e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428c190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428cf70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28355d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f04213160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284c730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2834f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284f010&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2836ec0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28363b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284db70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28370a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428d990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428d330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2837af0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428dff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2834970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284c9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2834250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428e530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2869c00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428c730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2835d80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2837d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041b7cd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28358a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428fb20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2837070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428d180&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28694e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284cac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284d690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284f910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428e1a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284ebf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28365c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284d240&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428c6a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2837c10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284df30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2836e30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2834d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284eec0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284e830&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284cfd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284c0d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428d480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284caf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284f640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2837bb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428c910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041e5ed0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28692d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284e380&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284cee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2868100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28341f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f042107f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041e7d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428f760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f041e6290&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428f340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284d360&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef28687c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0428e2f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0423ba60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284cf40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2869f30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef2869bd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5ef284d5d0&gt;</t>
   </si>
 </sst>
 </file>
